--- a/Code/Results/Cases/Case_3_71/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_71/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00990255684464</v>
+        <v>1.03901134014721</v>
       </c>
       <c r="D2">
-        <v>1.024080480359423</v>
+        <v>1.040098293597874</v>
       </c>
       <c r="E2">
-        <v>1.020645056350124</v>
+        <v>1.047235029935547</v>
       </c>
       <c r="F2">
-        <v>1.022062706454659</v>
+        <v>1.057362519252723</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044797225716038</v>
+        <v>1.038234503270647</v>
       </c>
       <c r="J2">
-        <v>1.031791065071129</v>
+        <v>1.044105668756326</v>
       </c>
       <c r="K2">
-        <v>1.035214227682052</v>
+        <v>1.042881606304943</v>
       </c>
       <c r="L2">
-        <v>1.031824074440208</v>
+        <v>1.049998235410718</v>
       </c>
       <c r="M2">
-        <v>1.033222997017076</v>
+        <v>1.060097696066628</v>
       </c>
       <c r="N2">
-        <v>1.014225659052754</v>
+        <v>1.018590181221952</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014579323918301</v>
+        <v>1.039989348756141</v>
       </c>
       <c r="D3">
-        <v>1.027410018181188</v>
+        <v>1.040811860595336</v>
       </c>
       <c r="E3">
-        <v>1.024873398287236</v>
+        <v>1.048177832135185</v>
       </c>
       <c r="F3">
-        <v>1.027295467861818</v>
+        <v>1.058555236205481</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046157556249761</v>
+        <v>1.038465558715381</v>
       </c>
       <c r="J3">
-        <v>1.034680281130868</v>
+        <v>1.044728564242412</v>
       </c>
       <c r="K3">
-        <v>1.037703795221776</v>
+        <v>1.043405782001332</v>
       </c>
       <c r="L3">
-        <v>1.035197611655587</v>
+        <v>1.050752501023985</v>
       </c>
       <c r="M3">
-        <v>1.037590615346355</v>
+        <v>1.06110327184548</v>
       </c>
       <c r="N3">
-        <v>1.015210851623634</v>
+        <v>1.018800264955289</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017541252910082</v>
+        <v>1.040622402358694</v>
       </c>
       <c r="D4">
-        <v>1.029521565778818</v>
+        <v>1.041273723083823</v>
       </c>
       <c r="E4">
-        <v>1.027556841489196</v>
+        <v>1.048788495110687</v>
       </c>
       <c r="F4">
-        <v>1.030617459133468</v>
+        <v>1.059328111547067</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047010064133651</v>
+        <v>1.038613975361191</v>
       </c>
       <c r="J4">
-        <v>1.036506651530192</v>
+        <v>1.045131227876188</v>
       </c>
       <c r="K4">
-        <v>1.039276283802968</v>
+        <v>1.04374442382901</v>
       </c>
       <c r="L4">
-        <v>1.037333677839736</v>
+        <v>1.05124054347213</v>
       </c>
       <c r="M4">
-        <v>1.040359884999834</v>
+        <v>1.061754478872474</v>
       </c>
       <c r="N4">
-        <v>1.015833315132362</v>
+        <v>1.018935987745562</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018771632565697</v>
+        <v>1.040888589530861</v>
       </c>
       <c r="D5">
-        <v>1.030399329845681</v>
+        <v>1.041467921886013</v>
       </c>
       <c r="E5">
-        <v>1.02867283519234</v>
+        <v>1.049045362468875</v>
       </c>
       <c r="F5">
-        <v>1.031999319260587</v>
+        <v>1.059653293258789</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047361992634266</v>
+        <v>1.038676108031265</v>
       </c>
       <c r="J5">
-        <v>1.037264461947781</v>
+        <v>1.04530041342232</v>
       </c>
       <c r="K5">
-        <v>1.039928439433946</v>
+        <v>1.043886660191496</v>
       </c>
       <c r="L5">
-        <v>1.038220851931478</v>
+        <v>1.051445711744768</v>
       </c>
       <c r="M5">
-        <v>1.04151097639569</v>
+        <v>1.062028373378309</v>
       </c>
       <c r="N5">
-        <v>1.016091512541588</v>
+        <v>1.018992993769565</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018977365874358</v>
+        <v>1.040933286532425</v>
       </c>
       <c r="D6">
-        <v>1.030546137429512</v>
+        <v>1.041500530556733</v>
       </c>
       <c r="E6">
-        <v>1.028859517352548</v>
+        <v>1.049088500091657</v>
       </c>
       <c r="F6">
-        <v>1.032230494382924</v>
+        <v>1.059707908226226</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047420708585944</v>
+        <v>1.038686525024682</v>
       </c>
       <c r="J6">
-        <v>1.037391124871173</v>
+        <v>1.045328814877598</v>
       </c>
       <c r="K6">
-        <v>1.040037424149165</v>
+        <v>1.043910534740243</v>
       </c>
       <c r="L6">
-        <v>1.038369188221292</v>
+        <v>1.051480160106149</v>
       </c>
       <c r="M6">
-        <v>1.041703495167297</v>
+        <v>1.062074368912474</v>
       </c>
       <c r="N6">
-        <v>1.016134663679468</v>
+        <v>1.019002562284476</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017557750788313</v>
+        <v>1.040625958963121</v>
       </c>
       <c r="D7">
-        <v>1.02953333309186</v>
+        <v>1.041276317853937</v>
       </c>
       <c r="E7">
-        <v>1.027571800504116</v>
+        <v>1.048791926817358</v>
       </c>
       <c r="F7">
-        <v>1.030635980617252</v>
+        <v>1.059332455600392</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047014791807185</v>
+        <v>1.038614806609641</v>
       </c>
       <c r="J7">
-        <v>1.036516816277099</v>
+        <v>1.045133488912732</v>
       </c>
       <c r="K7">
-        <v>1.039285032620179</v>
+        <v>1.043746324904557</v>
       </c>
       <c r="L7">
-        <v>1.03734557435499</v>
+        <v>1.051243284960005</v>
       </c>
       <c r="M7">
-        <v>1.040375316800547</v>
+        <v>1.06175813816539</v>
       </c>
       <c r="N7">
-        <v>1.015836778735687</v>
+        <v>1.018936749666857</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011496746880612</v>
+        <v>1.039341817623197</v>
       </c>
       <c r="D8">
-        <v>1.025214801183716</v>
+        <v>1.040339417972141</v>
       </c>
       <c r="E8">
-        <v>1.022085215985308</v>
+        <v>1.047553528295965</v>
       </c>
       <c r="F8">
-        <v>1.023844760130392</v>
+        <v>1.057765374005695</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04526279983935</v>
+        <v>1.038312815375221</v>
       </c>
       <c r="J8">
-        <v>1.032776629139821</v>
+        <v>1.044316259916118</v>
       </c>
       <c r="K8">
-        <v>1.036063719521451</v>
+        <v>1.043058864325409</v>
       </c>
       <c r="L8">
-        <v>1.032974113504884</v>
+        <v>1.050253146397777</v>
       </c>
       <c r="M8">
-        <v>1.034711142605883</v>
+        <v>1.060437424689061</v>
       </c>
       <c r="N8">
-        <v>1.014561788017042</v>
+        <v>1.018661224452647</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00029731584797</v>
+        <v>1.037080674253375</v>
       </c>
       <c r="D9">
-        <v>1.017260509488027</v>
+        <v>1.038689571965601</v>
       </c>
       <c r="E9">
-        <v>1.011992487493632</v>
+        <v>1.045375988695186</v>
       </c>
       <c r="F9">
-        <v>1.011359009279954</v>
+        <v>1.055012471626614</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041955178661061</v>
+        <v>1.037772322187813</v>
       </c>
       <c r="J9">
-        <v>1.025839579492879</v>
+        <v>1.042873224256397</v>
       </c>
       <c r="K9">
-        <v>1.030079619324135</v>
+        <v>1.041843400903896</v>
       </c>
       <c r="L9">
-        <v>1.024893945905768</v>
+        <v>1.048508281114122</v>
       </c>
       <c r="M9">
-        <v>1.024270444041907</v>
+        <v>1.058114250613558</v>
       </c>
       <c r="N9">
-        <v>1.012194785516004</v>
+        <v>1.018174075363549</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9924414545192489</v>
+        <v>1.035574396223345</v>
       </c>
       <c r="D10">
-        <v>1.011702117752554</v>
+        <v>1.037590464670735</v>
       </c>
       <c r="E10">
-        <v>1.004945639017299</v>
+        <v>1.043927476887079</v>
       </c>
       <c r="F10">
-        <v>1.00264312246315</v>
+        <v>1.053182928724752</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039589786135797</v>
+        <v>1.037406401426043</v>
       </c>
       <c r="J10">
-        <v>1.020958204680172</v>
+        <v>1.041909231949815</v>
       </c>
       <c r="K10">
-        <v>1.025863253109131</v>
+        <v>1.04103039031022</v>
       </c>
       <c r="L10">
-        <v>1.019226168898485</v>
+        <v>1.047344988592202</v>
       </c>
       <c r="M10">
-        <v>1.016964817942847</v>
+        <v>1.056568237533042</v>
       </c>
       <c r="N10">
-        <v>1.010528035185368</v>
+        <v>1.017848222761054</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9889374881676637</v>
+        <v>1.034922438283594</v>
       </c>
       <c r="D11">
-        <v>1.009228850884788</v>
+        <v>1.037114737983313</v>
       </c>
       <c r="E11">
-        <v>1.001810768991069</v>
+        <v>1.043301017027008</v>
       </c>
       <c r="F11">
-        <v>0.9987654995984113</v>
+        <v>1.052392076415302</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038524560442791</v>
+        <v>1.037246631229231</v>
       </c>
       <c r="J11">
-        <v>1.018777833727496</v>
+        <v>1.041491351784645</v>
       </c>
       <c r="K11">
-        <v>1.023978798272414</v>
+        <v>1.040677713932848</v>
       </c>
       <c r="L11">
-        <v>1.016698617463131</v>
+        <v>1.046841263858447</v>
       </c>
       <c r="M11">
-        <v>1.013710734400323</v>
+        <v>1.055899456913695</v>
       </c>
       <c r="N11">
-        <v>1.009783346538341</v>
+        <v>1.017706870303027</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9876196688737869</v>
+        <v>1.034680312939221</v>
       </c>
       <c r="D12">
-        <v>1.008299649596434</v>
+        <v>1.036938061944609</v>
       </c>
       <c r="E12">
-        <v>1.000633048465354</v>
+        <v>1.043068435930988</v>
       </c>
       <c r="F12">
-        <v>0.9973086367489066</v>
+        <v>1.052098521817473</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038122454818646</v>
+        <v>1.0371870868049</v>
       </c>
       <c r="J12">
-        <v>1.017957388247585</v>
+        <v>1.041336063030177</v>
       </c>
       <c r="K12">
-        <v>1.023269550314215</v>
+        <v>1.040546618967821</v>
       </c>
       <c r="L12">
-        <v>1.015748130307219</v>
+        <v>1.046654156718533</v>
       </c>
       <c r="M12">
-        <v>1.012487581315199</v>
+        <v>1.055651140327091</v>
       </c>
       <c r="N12">
-        <v>1.009503106732751</v>
+        <v>1.017654327449139</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9879030982437171</v>
+        <v>1.034732247794468</v>
       </c>
       <c r="D13">
-        <v>1.0084994515288</v>
+        <v>1.036975958181321</v>
       </c>
       <c r="E13">
-        <v>1.000886287410054</v>
+        <v>1.043118320199102</v>
       </c>
       <c r="F13">
-        <v>0.9976219038273114</v>
+        <v>1.052161481080579</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038209003595401</v>
+        <v>1.037199868271443</v>
       </c>
       <c r="J13">
-        <v>1.018133863458878</v>
+        <v>1.041369376131271</v>
       </c>
       <c r="K13">
-        <v>1.023422113873811</v>
+        <v>1.04057474358514</v>
       </c>
       <c r="L13">
-        <v>1.015952550315095</v>
+        <v>1.046694291890165</v>
       </c>
       <c r="M13">
-        <v>1.012750619083831</v>
+        <v>1.055704400626203</v>
       </c>
       <c r="N13">
-        <v>1.009563386353981</v>
+        <v>1.017665599797292</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9888288946781131</v>
+        <v>1.034902423292098</v>
       </c>
       <c r="D14">
-        <v>1.009152260662668</v>
+        <v>1.037100133269025</v>
       </c>
       <c r="E14">
-        <v>1.001713693833518</v>
+        <v>1.04328178947274</v>
       </c>
       <c r="F14">
-        <v>0.9986454182159943</v>
+        <v>1.052367806955822</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038491455164485</v>
+        <v>1.037241713319561</v>
       </c>
       <c r="J14">
-        <v>1.018710234090298</v>
+        <v>1.041478516982145</v>
       </c>
       <c r="K14">
-        <v>1.023920363609583</v>
+        <v>1.040666879522371</v>
       </c>
       <c r="L14">
-        <v>1.01662029113917</v>
+        <v>1.046825797549207</v>
       </c>
       <c r="M14">
-        <v>1.013609927720395</v>
+        <v>1.055878928980628</v>
       </c>
       <c r="N14">
-        <v>1.009760256939144</v>
+        <v>1.017702527873477</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9893971212023994</v>
+        <v>1.035007279454689</v>
       </c>
       <c r="D15">
-        <v>1.009553067205854</v>
+        <v>1.037176645645203</v>
       </c>
       <c r="E15">
-        <v>1.002221702101373</v>
+        <v>1.043382523407432</v>
       </c>
       <c r="F15">
-        <v>0.9992738168302736</v>
+        <v>1.05249495806021</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038664621860619</v>
+        <v>1.037267469118588</v>
       </c>
       <c r="J15">
-        <v>1.019063939187726</v>
+        <v>1.041545753071799</v>
       </c>
       <c r="K15">
-        <v>1.024226108249454</v>
+        <v>1.040723634907173</v>
       </c>
       <c r="L15">
-        <v>1.017030146301525</v>
+        <v>1.046906822358713</v>
       </c>
       <c r="M15">
-        <v>1.014137437059839</v>
+        <v>1.05598647469254</v>
       </c>
       <c r="N15">
-        <v>1.009881068950889</v>
+        <v>1.017725275417225</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9926717686473086</v>
+        <v>1.035617670241781</v>
       </c>
       <c r="D16">
-        <v>1.011864815423841</v>
+        <v>1.037622041247621</v>
       </c>
       <c r="E16">
-        <v>1.00515186807959</v>
+        <v>1.043969068921993</v>
       </c>
       <c r="F16">
-        <v>1.002898203245234</v>
+        <v>1.053235443474953</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039659594985051</v>
+        <v>1.037416976973746</v>
       </c>
       <c r="J16">
-        <v>1.02110145841001</v>
+        <v>1.041936955516598</v>
       </c>
       <c r="K16">
-        <v>1.025987042718229</v>
+        <v>1.041053782893595</v>
       </c>
       <c r="L16">
-        <v>1.019392316580991</v>
+        <v>1.047378418934939</v>
       </c>
       <c r="M16">
-        <v>1.01717880164341</v>
+        <v>1.056612636077716</v>
       </c>
       <c r="N16">
-        <v>1.01057695880899</v>
+        <v>1.017857598480854</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9946978470821027</v>
+        <v>1.036000624814853</v>
       </c>
       <c r="D17">
-        <v>1.013296757355195</v>
+        <v>1.037901478712565</v>
       </c>
       <c r="E17">
-        <v>1.006967013118392</v>
+        <v>1.044337196006101</v>
       </c>
       <c r="F17">
-        <v>1.00514328432924</v>
+        <v>1.053700292381656</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040272552453506</v>
+        <v>1.037510404994521</v>
       </c>
       <c r="J17">
-        <v>1.022361315154349</v>
+        <v>1.042182222245302</v>
       </c>
       <c r="K17">
-        <v>1.027075594885377</v>
+        <v>1.041260705706256</v>
       </c>
       <c r="L17">
-        <v>1.020853978226266</v>
+        <v>1.047674236214914</v>
       </c>
       <c r="M17">
-        <v>1.0190617301413</v>
+        <v>1.057005585582888</v>
       </c>
       <c r="N17">
-        <v>1.011007199875528</v>
+        <v>1.017940532827029</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.995869816825856</v>
+        <v>1.036224021810348</v>
       </c>
       <c r="D18">
-        <v>1.014125612006852</v>
+        <v>1.038064488519409</v>
       </c>
       <c r="E18">
-        <v>1.008017749060763</v>
+        <v>1.044551991148184</v>
       </c>
       <c r="F18">
-        <v>1.00644287745537</v>
+        <v>1.053971561312694</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040626144322806</v>
+        <v>1.037564772204409</v>
       </c>
       <c r="J18">
-        <v>1.023089770709457</v>
+        <v>1.042325237271094</v>
       </c>
       <c r="K18">
-        <v>1.027704893633663</v>
+        <v>1.041381338745448</v>
       </c>
       <c r="L18">
-        <v>1.021699506144355</v>
+        <v>1.047846780305286</v>
       </c>
       <c r="M18">
-        <v>1.020151317521286</v>
+        <v>1.05723484939824</v>
       </c>
       <c r="N18">
-        <v>1.011255948158214</v>
+        <v>1.017988882300115</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9962677914070508</v>
+        <v>1.036300198827749</v>
       </c>
       <c r="D19">
-        <v>1.01440716475136</v>
+        <v>1.038120073789329</v>
       </c>
       <c r="E19">
-        <v>1.008374686231045</v>
+        <v>1.044625243080575</v>
       </c>
       <c r="F19">
-        <v>1.006884350236877</v>
+        <v>1.054064079129017</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040746050422326</v>
+        <v>1.037583288337131</v>
       </c>
       <c r="J19">
-        <v>1.02333708575297</v>
+        <v>1.042373994069022</v>
       </c>
       <c r="K19">
-        <v>1.027918525592277</v>
+        <v>1.041422461041191</v>
       </c>
       <c r="L19">
-        <v>1.021986634188826</v>
+        <v>1.047905613179369</v>
       </c>
       <c r="M19">
-        <v>1.020521387940055</v>
+        <v>1.057313033118273</v>
       </c>
       <c r="N19">
-        <v>1.011340396226441</v>
+        <v>1.018005364019894</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9944814888830859</v>
+        <v>1.035959534714831</v>
       </c>
       <c r="D20">
-        <v>1.013143786468299</v>
+        <v>1.037871495780493</v>
       </c>
       <c r="E20">
-        <v>1.006773098652328</v>
+        <v>1.044297691915727</v>
       </c>
       <c r="F20">
-        <v>1.004903441767385</v>
+        <v>1.053650405001873</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040207196939241</v>
+        <v>1.037500394266369</v>
       </c>
       <c r="J20">
-        <v>1.022226809934077</v>
+        <v>1.042155912088353</v>
       </c>
       <c r="K20">
-        <v>1.026959389589805</v>
+        <v>1.041238511208044</v>
       </c>
       <c r="L20">
-        <v>1.020697887715453</v>
+        <v>1.047642497933933</v>
       </c>
       <c r="M20">
-        <v>1.018860614581324</v>
+        <v>1.056963419300347</v>
       </c>
       <c r="N20">
-        <v>1.010961268297535</v>
+        <v>1.017931637312659</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9885567281075172</v>
+        <v>1.034852309719591</v>
       </c>
       <c r="D21">
-        <v>1.008960319553852</v>
+        <v>1.037063565964472</v>
       </c>
       <c r="E21">
-        <v>1.001470416357062</v>
+        <v>1.043233648695234</v>
       </c>
       <c r="F21">
-        <v>0.9983444835874146</v>
+        <v>1.052307043519275</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038408460116708</v>
+        <v>1.037229396477642</v>
       </c>
       <c r="J21">
-        <v>1.018540803292411</v>
+        <v>1.041446379635692</v>
       </c>
       <c r="K21">
-        <v>1.023773901389925</v>
+        <v>1.0406397504107</v>
       </c>
       <c r="L21">
-        <v>1.016423984696007</v>
+        <v>1.046787072444495</v>
       </c>
       <c r="M21">
-        <v>1.013357288259701</v>
+        <v>1.055827532014948</v>
       </c>
       <c r="N21">
-        <v>1.00970238513827</v>
+        <v>1.017691654529741</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9847368393694397</v>
+        <v>1.034156389961887</v>
       </c>
       <c r="D22">
-        <v>1.006268847888031</v>
+        <v>1.036555762631648</v>
       </c>
       <c r="E22">
-        <v>0.9980591088394433</v>
+        <v>1.042565302252304</v>
       </c>
       <c r="F22">
-        <v>0.9941243641964812</v>
+        <v>1.051463594309597</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037240150119289</v>
+        <v>1.037057860165058</v>
       </c>
       <c r="J22">
-        <v>1.016161879401624</v>
+        <v>1.040999866788773</v>
       </c>
       <c r="K22">
-        <v>1.021717132268234</v>
+        <v>1.040262734866942</v>
       </c>
       <c r="L22">
-        <v>1.013669113466847</v>
+        <v>1.046249224886867</v>
       </c>
       <c r="M22">
-        <v>1.009813124161888</v>
+        <v>1.05511392349133</v>
       </c>
       <c r="N22">
-        <v>1.008889779457387</v>
+        <v>1.017540546595247</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9867711413543381</v>
+        <v>1.034525287689766</v>
       </c>
       <c r="D23">
-        <v>1.007701635017368</v>
+        <v>1.036824941978105</v>
       </c>
       <c r="E23">
-        <v>0.9998750964163371</v>
+        <v>1.042919542637768</v>
       </c>
       <c r="F23">
-        <v>0.9963709986567583</v>
+        <v>1.05191061125015</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037863132958997</v>
+        <v>1.037148903654406</v>
       </c>
       <c r="J23">
-        <v>1.017429000740136</v>
+        <v>1.041236609624494</v>
       </c>
       <c r="K23">
-        <v>1.022812736185</v>
+        <v>1.040462649985046</v>
       </c>
       <c r="L23">
-        <v>1.015136159200074</v>
+        <v>1.046534348650875</v>
       </c>
       <c r="M23">
-        <v>1.011700203936799</v>
+        <v>1.055492166888793</v>
       </c>
       <c r="N23">
-        <v>1.009322619619063</v>
+        <v>1.017620672666158</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9945792820812245</v>
+        <v>1.035978101481692</v>
       </c>
       <c r="D24">
-        <v>1.013212927082521</v>
+        <v>1.037885043719293</v>
       </c>
       <c r="E24">
-        <v>1.006860744944064</v>
+        <v>1.04431554188864</v>
       </c>
       <c r="F24">
-        <v>1.005011846895889</v>
+        <v>1.053672946558295</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040236740425785</v>
+        <v>1.037504918078311</v>
       </c>
       <c r="J24">
-        <v>1.022287606784534</v>
+        <v>1.04216780065451</v>
       </c>
       <c r="K24">
-        <v>1.027011915142633</v>
+        <v>1.041248540136579</v>
       </c>
       <c r="L24">
-        <v>1.020768439992167</v>
+        <v>1.047656839100386</v>
       </c>
       <c r="M24">
-        <v>1.018951516850196</v>
+        <v>1.056982472233595</v>
       </c>
       <c r="N24">
-        <v>1.010982029598744</v>
+        <v>1.017935656889111</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003258159414896</v>
+        <v>1.037665032851268</v>
       </c>
       <c r="D25">
-        <v>1.019360072251463</v>
+        <v>1.039115961574265</v>
       </c>
       <c r="E25">
-        <v>1.014655269167759</v>
+        <v>1.045938376863591</v>
       </c>
       <c r="F25">
-        <v>1.014652621260435</v>
+        <v>1.055723154746014</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042837592924615</v>
+        <v>1.037913039685695</v>
       </c>
       <c r="J25">
-        <v>1.02767636882181</v>
+        <v>1.043246632796047</v>
       </c>
       <c r="K25">
-        <v>1.03166510212098</v>
+        <v>1.042158106069105</v>
       </c>
       <c r="L25">
-        <v>1.027030262373307</v>
+        <v>1.048959381315135</v>
       </c>
       <c r="M25">
-        <v>1.027027654074418</v>
+        <v>1.058714360004478</v>
       </c>
       <c r="N25">
-        <v>1.01282174537918</v>
+        <v>1.018300207693377</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_71/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_71/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03901134014721</v>
+        <v>1.009902556844641</v>
       </c>
       <c r="D2">
-        <v>1.040098293597874</v>
+        <v>1.024080480359423</v>
       </c>
       <c r="E2">
-        <v>1.047235029935547</v>
+        <v>1.020645056350124</v>
       </c>
       <c r="F2">
-        <v>1.057362519252723</v>
+        <v>1.022062706454659</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038234503270647</v>
+        <v>1.044797225716038</v>
       </c>
       <c r="J2">
-        <v>1.044105668756326</v>
+        <v>1.031791065071129</v>
       </c>
       <c r="K2">
-        <v>1.042881606304943</v>
+        <v>1.035214227682052</v>
       </c>
       <c r="L2">
-        <v>1.049998235410718</v>
+        <v>1.031824074440208</v>
       </c>
       <c r="M2">
-        <v>1.060097696066628</v>
+        <v>1.033222997017076</v>
       </c>
       <c r="N2">
-        <v>1.018590181221952</v>
+        <v>1.014225659052754</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039989348756141</v>
+        <v>1.0145793239183</v>
       </c>
       <c r="D3">
-        <v>1.040811860595336</v>
+        <v>1.027410018181187</v>
       </c>
       <c r="E3">
-        <v>1.048177832135185</v>
+        <v>1.024873398287235</v>
       </c>
       <c r="F3">
-        <v>1.058555236205481</v>
+        <v>1.027295467861818</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038465558715381</v>
+        <v>1.046157556249761</v>
       </c>
       <c r="J3">
-        <v>1.044728564242412</v>
+        <v>1.034680281130867</v>
       </c>
       <c r="K3">
-        <v>1.043405782001332</v>
+        <v>1.037703795221776</v>
       </c>
       <c r="L3">
-        <v>1.050752501023985</v>
+        <v>1.035197611655587</v>
       </c>
       <c r="M3">
-        <v>1.06110327184548</v>
+        <v>1.037590615346355</v>
       </c>
       <c r="N3">
-        <v>1.018800264955289</v>
+        <v>1.015210851623634</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040622402358694</v>
+        <v>1.017541252910082</v>
       </c>
       <c r="D4">
-        <v>1.041273723083823</v>
+        <v>1.029521565778818</v>
       </c>
       <c r="E4">
-        <v>1.048788495110687</v>
+        <v>1.027556841489196</v>
       </c>
       <c r="F4">
-        <v>1.059328111547067</v>
+        <v>1.030617459133468</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038613975361191</v>
+        <v>1.047010064133651</v>
       </c>
       <c r="J4">
-        <v>1.045131227876188</v>
+        <v>1.036506651530192</v>
       </c>
       <c r="K4">
-        <v>1.04374442382901</v>
+        <v>1.039276283802967</v>
       </c>
       <c r="L4">
-        <v>1.05124054347213</v>
+        <v>1.037333677839736</v>
       </c>
       <c r="M4">
-        <v>1.061754478872474</v>
+        <v>1.040359884999833</v>
       </c>
       <c r="N4">
-        <v>1.018935987745562</v>
+        <v>1.015833315132361</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040888589530861</v>
+        <v>1.018771632565696</v>
       </c>
       <c r="D5">
-        <v>1.041467921886013</v>
+        <v>1.030399329845681</v>
       </c>
       <c r="E5">
-        <v>1.049045362468875</v>
+        <v>1.02867283519234</v>
       </c>
       <c r="F5">
-        <v>1.059653293258789</v>
+        <v>1.031999319260587</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038676108031265</v>
+        <v>1.047361992634266</v>
       </c>
       <c r="J5">
-        <v>1.04530041342232</v>
+        <v>1.037264461947781</v>
       </c>
       <c r="K5">
-        <v>1.043886660191496</v>
+        <v>1.039928439433946</v>
       </c>
       <c r="L5">
-        <v>1.051445711744768</v>
+        <v>1.038220851931478</v>
       </c>
       <c r="M5">
-        <v>1.062028373378309</v>
+        <v>1.04151097639569</v>
       </c>
       <c r="N5">
-        <v>1.018992993769565</v>
+        <v>1.016091512541588</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040933286532425</v>
+        <v>1.018977365874359</v>
       </c>
       <c r="D6">
-        <v>1.041500530556733</v>
+        <v>1.030546137429513</v>
       </c>
       <c r="E6">
-        <v>1.049088500091657</v>
+        <v>1.028859517352548</v>
       </c>
       <c r="F6">
-        <v>1.059707908226226</v>
+        <v>1.032230494382925</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038686525024682</v>
+        <v>1.047420708585944</v>
       </c>
       <c r="J6">
-        <v>1.045328814877598</v>
+        <v>1.037391124871174</v>
       </c>
       <c r="K6">
-        <v>1.043910534740243</v>
+        <v>1.040037424149166</v>
       </c>
       <c r="L6">
-        <v>1.051480160106149</v>
+        <v>1.038369188221293</v>
       </c>
       <c r="M6">
-        <v>1.062074368912474</v>
+        <v>1.041703495167299</v>
       </c>
       <c r="N6">
-        <v>1.019002562284476</v>
+        <v>1.016134663679469</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040625958963121</v>
+        <v>1.017557750788313</v>
       </c>
       <c r="D7">
-        <v>1.041276317853937</v>
+        <v>1.02953333309186</v>
       </c>
       <c r="E7">
-        <v>1.048791926817358</v>
+        <v>1.027571800504117</v>
       </c>
       <c r="F7">
-        <v>1.059332455600392</v>
+        <v>1.030635980617252</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038614806609641</v>
+        <v>1.047014791807185</v>
       </c>
       <c r="J7">
-        <v>1.045133488912732</v>
+        <v>1.036516816277099</v>
       </c>
       <c r="K7">
-        <v>1.043746324904557</v>
+        <v>1.039285032620179</v>
       </c>
       <c r="L7">
-        <v>1.051243284960005</v>
+        <v>1.03734557435499</v>
       </c>
       <c r="M7">
-        <v>1.06175813816539</v>
+        <v>1.040375316800547</v>
       </c>
       <c r="N7">
-        <v>1.018936749666857</v>
+        <v>1.015836778735687</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039341817623197</v>
+        <v>1.011496746880613</v>
       </c>
       <c r="D8">
-        <v>1.040339417972141</v>
+        <v>1.025214801183717</v>
       </c>
       <c r="E8">
-        <v>1.047553528295965</v>
+        <v>1.022085215985309</v>
       </c>
       <c r="F8">
-        <v>1.057765374005695</v>
+        <v>1.023844760130393</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038312815375221</v>
+        <v>1.04526279983935</v>
       </c>
       <c r="J8">
-        <v>1.044316259916118</v>
+        <v>1.032776629139823</v>
       </c>
       <c r="K8">
-        <v>1.043058864325409</v>
+        <v>1.036063719521452</v>
       </c>
       <c r="L8">
-        <v>1.050253146397777</v>
+        <v>1.032974113504885</v>
       </c>
       <c r="M8">
-        <v>1.060437424689061</v>
+        <v>1.034711142605884</v>
       </c>
       <c r="N8">
-        <v>1.018661224452647</v>
+        <v>1.014561788017043</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037080674253375</v>
+        <v>1.000297315847969</v>
       </c>
       <c r="D9">
-        <v>1.038689571965601</v>
+        <v>1.017260509488026</v>
       </c>
       <c r="E9">
-        <v>1.045375988695186</v>
+        <v>1.011992487493631</v>
       </c>
       <c r="F9">
-        <v>1.055012471626614</v>
+        <v>1.011359009279954</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037772322187813</v>
+        <v>1.041955178661061</v>
       </c>
       <c r="J9">
-        <v>1.042873224256397</v>
+        <v>1.025839579492878</v>
       </c>
       <c r="K9">
-        <v>1.041843400903896</v>
+        <v>1.030079619324134</v>
       </c>
       <c r="L9">
-        <v>1.048508281114122</v>
+        <v>1.024893945905768</v>
       </c>
       <c r="M9">
-        <v>1.058114250613558</v>
+        <v>1.024270444041907</v>
       </c>
       <c r="N9">
-        <v>1.018174075363549</v>
+        <v>1.012194785516004</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035574396223345</v>
+        <v>0.9924414545192491</v>
       </c>
       <c r="D10">
-        <v>1.037590464670735</v>
+        <v>1.011702117752554</v>
       </c>
       <c r="E10">
-        <v>1.043927476887079</v>
+        <v>1.004945639017299</v>
       </c>
       <c r="F10">
-        <v>1.053182928724752</v>
+        <v>1.00264312246315</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037406401426043</v>
+        <v>1.039589786135797</v>
       </c>
       <c r="J10">
-        <v>1.041909231949815</v>
+        <v>1.020958204680172</v>
       </c>
       <c r="K10">
-        <v>1.04103039031022</v>
+        <v>1.025863253109131</v>
       </c>
       <c r="L10">
-        <v>1.047344988592202</v>
+        <v>1.019226168898485</v>
       </c>
       <c r="M10">
-        <v>1.056568237533042</v>
+        <v>1.016964817942847</v>
       </c>
       <c r="N10">
-        <v>1.017848222761054</v>
+        <v>1.010528035185368</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034922438283594</v>
+        <v>0.9889374881676635</v>
       </c>
       <c r="D11">
-        <v>1.037114737983313</v>
+        <v>1.009228850884788</v>
       </c>
       <c r="E11">
-        <v>1.043301017027008</v>
+        <v>1.001810768991068</v>
       </c>
       <c r="F11">
-        <v>1.052392076415302</v>
+        <v>0.99876549959841</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037246631229231</v>
+        <v>1.038524560442791</v>
       </c>
       <c r="J11">
-        <v>1.041491351784645</v>
+        <v>1.018777833727496</v>
       </c>
       <c r="K11">
-        <v>1.040677713932848</v>
+        <v>1.023978798272414</v>
       </c>
       <c r="L11">
-        <v>1.046841263858447</v>
+        <v>1.01669861746313</v>
       </c>
       <c r="M11">
-        <v>1.055899456913695</v>
+        <v>1.013710734400322</v>
       </c>
       <c r="N11">
-        <v>1.017706870303027</v>
+        <v>1.009783346538341</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034680312939221</v>
+        <v>0.9876196688737859</v>
       </c>
       <c r="D12">
-        <v>1.036938061944609</v>
+        <v>1.008299649596433</v>
       </c>
       <c r="E12">
-        <v>1.043068435930988</v>
+        <v>1.000633048465353</v>
       </c>
       <c r="F12">
-        <v>1.052098521817473</v>
+        <v>0.997308636748905</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0371870868049</v>
+        <v>1.038122454818646</v>
       </c>
       <c r="J12">
-        <v>1.041336063030177</v>
+        <v>1.017957388247584</v>
       </c>
       <c r="K12">
-        <v>1.040546618967821</v>
+        <v>1.023269550314214</v>
       </c>
       <c r="L12">
-        <v>1.046654156718533</v>
+        <v>1.015748130307218</v>
       </c>
       <c r="M12">
-        <v>1.055651140327091</v>
+        <v>1.012487581315197</v>
       </c>
       <c r="N12">
-        <v>1.017654327449139</v>
+        <v>1.00950310673275</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034732247794468</v>
+        <v>0.9879030982437178</v>
       </c>
       <c r="D13">
-        <v>1.036975958181321</v>
+        <v>1.008499451528801</v>
       </c>
       <c r="E13">
-        <v>1.043118320199102</v>
+        <v>1.000886287410055</v>
       </c>
       <c r="F13">
-        <v>1.052161481080579</v>
+        <v>0.997621903827312</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037199868271443</v>
+        <v>1.038209003595401</v>
       </c>
       <c r="J13">
-        <v>1.041369376131271</v>
+        <v>1.018133863458878</v>
       </c>
       <c r="K13">
-        <v>1.04057474358514</v>
+        <v>1.023422113873812</v>
       </c>
       <c r="L13">
-        <v>1.046694291890165</v>
+        <v>1.015952550315096</v>
       </c>
       <c r="M13">
-        <v>1.055704400626203</v>
+        <v>1.012750619083831</v>
       </c>
       <c r="N13">
-        <v>1.017665599797292</v>
+        <v>1.009563386353981</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034902423292098</v>
+        <v>0.9888288946781132</v>
       </c>
       <c r="D14">
-        <v>1.037100133269025</v>
+        <v>1.009152260662668</v>
       </c>
       <c r="E14">
-        <v>1.04328178947274</v>
+        <v>1.001713693833519</v>
       </c>
       <c r="F14">
-        <v>1.052367806955822</v>
+        <v>0.9986454182159944</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037241713319561</v>
+        <v>1.038491455164485</v>
       </c>
       <c r="J14">
-        <v>1.041478516982145</v>
+        <v>1.018710234090298</v>
       </c>
       <c r="K14">
-        <v>1.040666879522371</v>
+        <v>1.023920363609583</v>
       </c>
       <c r="L14">
-        <v>1.046825797549207</v>
+        <v>1.01662029113917</v>
       </c>
       <c r="M14">
-        <v>1.055878928980628</v>
+        <v>1.013609927720395</v>
       </c>
       <c r="N14">
-        <v>1.017702527873477</v>
+        <v>1.009760256939145</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035007279454689</v>
+        <v>0.989397121202399</v>
       </c>
       <c r="D15">
-        <v>1.037176645645203</v>
+        <v>1.009553067205854</v>
       </c>
       <c r="E15">
-        <v>1.043382523407432</v>
+        <v>1.002221702101372</v>
       </c>
       <c r="F15">
-        <v>1.05249495806021</v>
+        <v>0.9992738168302734</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037267469118588</v>
+        <v>1.038664621860618</v>
       </c>
       <c r="J15">
-        <v>1.041545753071799</v>
+        <v>1.019063939187726</v>
       </c>
       <c r="K15">
-        <v>1.040723634907173</v>
+        <v>1.024226108249454</v>
       </c>
       <c r="L15">
-        <v>1.046906822358713</v>
+        <v>1.017030146301525</v>
       </c>
       <c r="M15">
-        <v>1.05598647469254</v>
+        <v>1.014137437059839</v>
       </c>
       <c r="N15">
-        <v>1.017725275417225</v>
+        <v>1.009881068950889</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035617670241781</v>
+        <v>0.9926717686473086</v>
       </c>
       <c r="D16">
-        <v>1.037622041247621</v>
+        <v>1.01186481542384</v>
       </c>
       <c r="E16">
-        <v>1.043969068921993</v>
+        <v>1.00515186807959</v>
       </c>
       <c r="F16">
-        <v>1.053235443474953</v>
+        <v>1.002898203245234</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037416976973746</v>
+        <v>1.039659594985051</v>
       </c>
       <c r="J16">
-        <v>1.041936955516598</v>
+        <v>1.02110145841001</v>
       </c>
       <c r="K16">
-        <v>1.041053782893595</v>
+        <v>1.025987042718229</v>
       </c>
       <c r="L16">
-        <v>1.047378418934939</v>
+        <v>1.019392316580991</v>
       </c>
       <c r="M16">
-        <v>1.056612636077716</v>
+        <v>1.017178801643409</v>
       </c>
       <c r="N16">
-        <v>1.017857598480854</v>
+        <v>1.01057695880899</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036000624814853</v>
+        <v>0.994697847082102</v>
       </c>
       <c r="D17">
-        <v>1.037901478712565</v>
+        <v>1.013296757355194</v>
       </c>
       <c r="E17">
-        <v>1.044337196006101</v>
+        <v>1.006967013118391</v>
       </c>
       <c r="F17">
-        <v>1.053700292381656</v>
+        <v>1.005143284329239</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037510404994521</v>
+        <v>1.040272552453505</v>
       </c>
       <c r="J17">
-        <v>1.042182222245302</v>
+        <v>1.022361315154348</v>
       </c>
       <c r="K17">
-        <v>1.041260705706256</v>
+        <v>1.027075594885376</v>
       </c>
       <c r="L17">
-        <v>1.047674236214914</v>
+        <v>1.020853978226265</v>
       </c>
       <c r="M17">
-        <v>1.057005585582888</v>
+        <v>1.0190617301413</v>
       </c>
       <c r="N17">
-        <v>1.017940532827029</v>
+        <v>1.011007199875528</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036224021810348</v>
+        <v>0.9958698168258566</v>
       </c>
       <c r="D18">
-        <v>1.038064488519409</v>
+        <v>1.014125612006853</v>
       </c>
       <c r="E18">
-        <v>1.044551991148184</v>
+        <v>1.008017749060764</v>
       </c>
       <c r="F18">
-        <v>1.053971561312694</v>
+        <v>1.006442877455371</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037564772204409</v>
+        <v>1.040626144322807</v>
       </c>
       <c r="J18">
-        <v>1.042325237271094</v>
+        <v>1.023089770709457</v>
       </c>
       <c r="K18">
-        <v>1.041381338745448</v>
+        <v>1.027704893633663</v>
       </c>
       <c r="L18">
-        <v>1.047846780305286</v>
+        <v>1.021699506144356</v>
       </c>
       <c r="M18">
-        <v>1.05723484939824</v>
+        <v>1.020151317521287</v>
       </c>
       <c r="N18">
-        <v>1.017988882300115</v>
+        <v>1.011255948158214</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036300198827749</v>
+        <v>0.9962677914070508</v>
       </c>
       <c r="D19">
-        <v>1.038120073789329</v>
+        <v>1.01440716475136</v>
       </c>
       <c r="E19">
-        <v>1.044625243080575</v>
+        <v>1.008374686231044</v>
       </c>
       <c r="F19">
-        <v>1.054064079129017</v>
+        <v>1.006884350236876</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037583288337131</v>
+        <v>1.040746050422326</v>
       </c>
       <c r="J19">
-        <v>1.042373994069022</v>
+        <v>1.02333708575297</v>
       </c>
       <c r="K19">
-        <v>1.041422461041191</v>
+        <v>1.027918525592277</v>
       </c>
       <c r="L19">
-        <v>1.047905613179369</v>
+        <v>1.021986634188826</v>
       </c>
       <c r="M19">
-        <v>1.057313033118273</v>
+        <v>1.020521387940055</v>
       </c>
       <c r="N19">
-        <v>1.018005364019894</v>
+        <v>1.011340396226441</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035959534714831</v>
+        <v>0.9944814888830859</v>
       </c>
       <c r="D20">
-        <v>1.037871495780493</v>
+        <v>1.013143786468299</v>
       </c>
       <c r="E20">
-        <v>1.044297691915727</v>
+        <v>1.006773098652328</v>
       </c>
       <c r="F20">
-        <v>1.053650405001873</v>
+        <v>1.004903441767385</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037500394266369</v>
+        <v>1.040207196939242</v>
       </c>
       <c r="J20">
-        <v>1.042155912088353</v>
+        <v>1.022226809934077</v>
       </c>
       <c r="K20">
-        <v>1.041238511208044</v>
+        <v>1.026959389589804</v>
       </c>
       <c r="L20">
-        <v>1.047642497933933</v>
+        <v>1.020697887715453</v>
       </c>
       <c r="M20">
-        <v>1.056963419300347</v>
+        <v>1.018860614581324</v>
       </c>
       <c r="N20">
-        <v>1.017931637312659</v>
+        <v>1.010961268297536</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034852309719591</v>
+        <v>0.9885567281075166</v>
       </c>
       <c r="D21">
-        <v>1.037063565964472</v>
+        <v>1.008960319553852</v>
       </c>
       <c r="E21">
-        <v>1.043233648695234</v>
+        <v>1.001470416357061</v>
       </c>
       <c r="F21">
-        <v>1.052307043519275</v>
+        <v>0.998344483587414</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037229396477642</v>
+        <v>1.038408460116707</v>
       </c>
       <c r="J21">
-        <v>1.041446379635692</v>
+        <v>1.018540803292411</v>
       </c>
       <c r="K21">
-        <v>1.0406397504107</v>
+        <v>1.023773901389924</v>
       </c>
       <c r="L21">
-        <v>1.046787072444495</v>
+        <v>1.016423984696006</v>
       </c>
       <c r="M21">
-        <v>1.055827532014948</v>
+        <v>1.0133572882597</v>
       </c>
       <c r="N21">
-        <v>1.017691654529741</v>
+        <v>1.009702385138269</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034156389961887</v>
+        <v>0.9847368393694392</v>
       </c>
       <c r="D22">
-        <v>1.036555762631648</v>
+        <v>1.006268847888031</v>
       </c>
       <c r="E22">
-        <v>1.042565302252304</v>
+        <v>0.9980591088394426</v>
       </c>
       <c r="F22">
-        <v>1.051463594309597</v>
+        <v>0.9941243641964805</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037057860165058</v>
+        <v>1.037240150119289</v>
       </c>
       <c r="J22">
-        <v>1.040999866788773</v>
+        <v>1.016161879401624</v>
       </c>
       <c r="K22">
-        <v>1.040262734866942</v>
+        <v>1.021717132268234</v>
       </c>
       <c r="L22">
-        <v>1.046249224886867</v>
+        <v>1.013669113466846</v>
       </c>
       <c r="M22">
-        <v>1.05511392349133</v>
+        <v>1.009813124161888</v>
       </c>
       <c r="N22">
-        <v>1.017540546595247</v>
+        <v>1.008889779457387</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034525287689766</v>
+        <v>0.9867711413543394</v>
       </c>
       <c r="D23">
-        <v>1.036824941978105</v>
+        <v>1.007701635017369</v>
       </c>
       <c r="E23">
-        <v>1.042919542637768</v>
+        <v>0.9998750964163382</v>
       </c>
       <c r="F23">
-        <v>1.05191061125015</v>
+        <v>0.9963709986567597</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037148903654406</v>
+        <v>1.037863132958998</v>
       </c>
       <c r="J23">
-        <v>1.041236609624494</v>
+        <v>1.017429000740137</v>
       </c>
       <c r="K23">
-        <v>1.040462649985046</v>
+        <v>1.022812736185001</v>
       </c>
       <c r="L23">
-        <v>1.046534348650875</v>
+        <v>1.015136159200075</v>
       </c>
       <c r="M23">
-        <v>1.055492166888793</v>
+        <v>1.011700203936801</v>
       </c>
       <c r="N23">
-        <v>1.017620672666158</v>
+        <v>1.009322619619063</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035978101481692</v>
+        <v>0.9945792820812245</v>
       </c>
       <c r="D24">
-        <v>1.037885043719293</v>
+        <v>1.013212927082521</v>
       </c>
       <c r="E24">
-        <v>1.04431554188864</v>
+        <v>1.006860744944064</v>
       </c>
       <c r="F24">
-        <v>1.053672946558295</v>
+        <v>1.005011846895889</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037504918078311</v>
+        <v>1.040236740425785</v>
       </c>
       <c r="J24">
-        <v>1.04216780065451</v>
+        <v>1.022287606784534</v>
       </c>
       <c r="K24">
-        <v>1.041248540136579</v>
+        <v>1.027011915142633</v>
       </c>
       <c r="L24">
-        <v>1.047656839100386</v>
+        <v>1.020768439992167</v>
       </c>
       <c r="M24">
-        <v>1.056982472233595</v>
+        <v>1.018951516850196</v>
       </c>
       <c r="N24">
-        <v>1.017935656889111</v>
+        <v>1.010982029598744</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037665032851268</v>
+        <v>1.003258159414894</v>
       </c>
       <c r="D25">
-        <v>1.039115961574265</v>
+        <v>1.019360072251461</v>
       </c>
       <c r="E25">
-        <v>1.045938376863591</v>
+        <v>1.014655269167758</v>
       </c>
       <c r="F25">
-        <v>1.055723154746014</v>
+        <v>1.014652621260433</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037913039685695</v>
+        <v>1.042837592924614</v>
       </c>
       <c r="J25">
-        <v>1.043246632796047</v>
+        <v>1.027676368821808</v>
       </c>
       <c r="K25">
-        <v>1.042158106069105</v>
+        <v>1.031665102120978</v>
       </c>
       <c r="L25">
-        <v>1.048959381315135</v>
+        <v>1.027030262373306</v>
       </c>
       <c r="M25">
-        <v>1.058714360004478</v>
+        <v>1.027027654074417</v>
       </c>
       <c r="N25">
-        <v>1.018300207693377</v>
+        <v>1.01282174537918</v>
       </c>
     </row>
   </sheetData>
